--- a/data/trans_bre/P16-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>12.1759504431109</v>
+        <v>12.19327200856245</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>14.33138515146628</v>
+        <v>14.56202762607359</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13.93493041176368</v>
+        <v>14.21090576913038</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.665633411726256</v>
+        <v>3.545237805003586</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5370084358230166</v>
+        <v>0.543230422851122</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.464731812329712</v>
+        <v>0.4532520385313789</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5496924897681162</v>
+        <v>0.56173935024907</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1011540156615912</v>
+        <v>0.112010010074051</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>23.4406900724471</v>
+        <v>23.73372888280661</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>27.60593456140983</v>
+        <v>27.54291174520677</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26.54874312879053</v>
+        <v>27.19388367313355</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23.07717008261627</v>
+        <v>23.69579471487196</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.327851519102971</v>
+        <v>1.36019097213719</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.168757430136493</v>
+        <v>1.105649330166664</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.392868852501332</v>
+        <v>1.429648199949497</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.162857809479936</v>
+        <v>1.207910677569547</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>18.68922189873408</v>
+        <v>18.62853821737699</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>20.55918416364857</v>
+        <v>20.15401043211896</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9.362811612122359</v>
+        <v>9.264367595061989</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.740305030237782</v>
+        <v>3.275970013657969</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8487874667997827</v>
+        <v>0.8284549601726791</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5758447586789691</v>
+        <v>0.5794923328728643</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2677450416818793</v>
+        <v>0.2579978727108415</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1003477588268558</v>
+        <v>0.08265459612295568</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>28.5567668429903</v>
+        <v>28.61437769043836</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>31.0258004165089</v>
+        <v>31.10853349296495</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21.06677031207288</v>
+        <v>20.34849156496679</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18.17559704777283</v>
+        <v>17.84182733124511</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.622552660429869</v>
+        <v>1.589476584088958</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.030310393762937</v>
+        <v>1.045557953763777</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7261753397942102</v>
+        <v>0.6966399456205022</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6569813333929673</v>
+        <v>0.6180781769786508</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>12.84996456659603</v>
+        <v>11.83014037197571</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.62223051048388</v>
+        <v>18.53785587304637</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.765377023253398</v>
+        <v>9.770975521002729</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.042555683674115</v>
+        <v>6.805079187990601</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4356921940191302</v>
+        <v>0.3880628155648347</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4406897977932833</v>
+        <v>0.459990972421197</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2458414948609355</v>
+        <v>0.2523806427992455</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1755401847890885</v>
+        <v>0.1705823137484845</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>23.15285492354808</v>
+        <v>23.27491602296747</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>28.52071031601148</v>
+        <v>29.29816332404525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.65452803175165</v>
+        <v>20.12522828339779</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.21653793102939</v>
+        <v>17.96326977330837</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9544996209168519</v>
+        <v>0.9221947289291575</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8465002358037618</v>
+        <v>0.8633969612329758</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6202748979081691</v>
+        <v>0.5892308706053091</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5121416752882993</v>
+        <v>0.519621882547986</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.1828285459601051</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2114669545800707</v>
+        <v>0.2114669545800708</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.68585467818319</v>
+        <v>10.7213611383817</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>15.92553125461772</v>
+        <v>15.42854022317749</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.113300902782397</v>
+        <v>3.617402991108722</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.962447657188688</v>
+        <v>6.067115691968938</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.24323259672488</v>
+        <v>0.2513702430264297</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3114868784847931</v>
+        <v>0.3066443854163288</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07562518880591562</v>
+        <v>0.06659011481084252</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1097679272358749</v>
+        <v>0.114721669463436</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.49558488983049</v>
+        <v>22.86399592554037</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>27.65905918961136</v>
+        <v>27.20838458121913</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.00086308145897</v>
+        <v>15.00717081948123</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15.60850885394008</v>
+        <v>15.24473553005754</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.659211037357694</v>
+        <v>0.6257294085205541</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6307731192007567</v>
+        <v>0.622642616642901</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3070644431392253</v>
+        <v>0.3066377541174266</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.331799547820527</v>
+        <v>0.3268826531974424</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.548224154098683</v>
+        <v>-4.093593667339019</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.403328073425146</v>
+        <v>2.18025631332335</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.357286272438554</v>
+        <v>8.715585569561103</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.179320984069677</v>
+        <v>1.21805506420507</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.05925330695928012</v>
+        <v>-0.05379508189088191</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03212944800509726</v>
+        <v>0.0282316563423746</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1205781319691482</v>
+        <v>0.1274384137045257</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.01612886880675646</v>
+        <v>0.01645855061698185</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.498951195103862</v>
+        <v>8.336683401315478</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.33823961696526</v>
+        <v>13.58737449147072</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20.12245435192404</v>
+        <v>20.54725513773579</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.09306650126203</v>
+        <v>10.36868386686546</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.121393505991596</v>
+        <v>0.1208927052895422</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1877201231843519</v>
+        <v>0.1929212518940129</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.329365655430314</v>
+        <v>0.3404942004596856</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1502417353422733</v>
+        <v>0.1570296935225102</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>7.77364618145322</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6.874693597983561</v>
+        <v>6.874693597983539</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1402262427628571</v>
@@ -1149,7 +1149,7 @@
         <v>0.09262149043933846</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.0899311807705744</v>
+        <v>0.0899311807705741</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.015831225183257</v>
+        <v>5.294889437720228</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.070901725073161</v>
+        <v>-1.153389789933962</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.919649100063286</v>
+        <v>2.692642756318262</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.635938022940542</v>
+        <v>2.372251315365737</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07207459263962976</v>
+        <v>0.06507950352055825</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.01180357539192066</v>
+        <v>-0.0128261810043129</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03394069309039321</v>
+        <v>0.03154191453157056</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.03394293773657078</v>
+        <v>0.03139738300559497</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.29815435042587</v>
+        <v>17.12709406563017</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.735551431847284</v>
+        <v>7.907990368915691</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12.89342729881382</v>
+        <v>12.26046646342635</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11.27214607111731</v>
+        <v>11.6230376219934</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2310086066976795</v>
+        <v>0.2306124422552223</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1025021433366063</v>
+        <v>0.09259990170751892</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.159230755214057</v>
+        <v>0.1519952631485109</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.153719969126426</v>
+        <v>0.1611325279884339</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>4.149917594706665</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5.297488812667872</v>
+        <v>5.29748881266785</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04423255408526161</v>
@@ -1249,7 +1249,7 @@
         <v>0.04558311142936437</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.06150190288386219</v>
+        <v>0.06150190288386193</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6394253035494765</v>
+        <v>-1.036651278466159</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1074134911314485</v>
+        <v>-0.162246175080064</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3145733294052029</v>
+        <v>-0.2432462845491455</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.354277492930731</v>
+        <v>1.679725917162991</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.006714573729756701</v>
+        <v>-0.01129558971703908</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.0009203177068770047</v>
+        <v>-0.001439280461628282</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.00344353491763492</v>
+        <v>-0.00226196746258741</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.01473107696749954</v>
+        <v>0.01892912490338424</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.208969413194167</v>
+        <v>8.966099026099485</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.52776608740041</v>
+        <v>7.175244226752812</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.248126539683838</v>
+        <v>7.783461673718025</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.531869511206278</v>
+        <v>9.310527707665862</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1081018618976544</v>
+        <v>0.1065123699413879</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08342256066014492</v>
+        <v>0.0798550828307662</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09372340602264452</v>
+        <v>0.08825518952472049</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1144344694888335</v>
+        <v>0.1126225439931163</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>15.35492226838481</v>
+        <v>15.60561718307816</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>17.48685695314266</v>
+        <v>17.33866371384171</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12.44387087291734</v>
+        <v>12.68636848533962</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8.840774005018813</v>
+        <v>8.933448560993087</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3696401810412749</v>
+        <v>0.3700106444989856</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3385304691001245</v>
+        <v>0.3338549514843839</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2398882449932229</v>
+        <v>0.2471608424686962</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1656762153680693</v>
+        <v>0.1669666249372772</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>20.39328781564415</v>
+        <v>20.41217165302005</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>22.21037999138065</v>
+        <v>22.31900946537465</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17.18343801513987</v>
+        <v>17.2666322530787</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13.42017642169137</v>
+        <v>13.41796020115505</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.523032639337741</v>
+        <v>0.5197511961601252</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4544353495380194</v>
+        <v>0.4556277237418088</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3529118074904312</v>
+        <v>0.3575756651003574</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.261716736951567</v>
+        <v>0.2635230220962749</v>
       </c>
     </row>
     <row r="28">
